--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_6.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_24</t>
+          <t>model_14_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999942485360426</v>
+        <v>0.9999970267595117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990508202218862</v>
+        <v>0.999039995763052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999552545111021</v>
+        <v>0.9999948195155985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999857747047974</v>
+        <v>0.9999895296553973</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999773872256511</v>
+        <v>0.999991383039633</v>
       </c>
       <c r="G2" t="n">
-        <v>5.368739144129206e-06</v>
+        <v>2.775389485592086e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008860176586923306</v>
+        <v>0.0008961218158751409</v>
       </c>
       <c r="I2" t="n">
-        <v>1.857545084264962e-05</v>
+        <v>2.670563247056188e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.485422419424174e-05</v>
+        <v>1.467652503115372e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.671483751844568e-05</v>
+        <v>8.673544139104956e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001828441698314604</v>
+        <v>0.0001004751787517093</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002317053979545838</v>
+        <v>0.001665950024938349</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00001533723722</v>
+        <v>1.000007928641302</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002415695764418069</v>
+        <v>0.001736872966491945</v>
       </c>
       <c r="P2" t="n">
-        <v>90.26983494652799</v>
+        <v>91.58943893089284</v>
       </c>
       <c r="Q2" t="n">
-        <v>130.4927371671786</v>
+        <v>131.8123411515435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_23</t>
+          <t>model_14_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999942877763041</v>
+        <v>0.9999970261224709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990507379092576</v>
+        <v>0.9990399588664342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999554368958808</v>
+        <v>0.999994817134136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999985949249915</v>
+        <v>0.9999895289916364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999775617282575</v>
+        <v>0.9999913819676404</v>
       </c>
       <c r="G3" t="n">
-        <v>5.332110082496865e-06</v>
+        <v>2.775984135350134e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008860944939180145</v>
+        <v>0.0008961562572483588</v>
       </c>
       <c r="I3" t="n">
-        <v>1.849973640585282e-05</v>
+        <v>2.671790901858015e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.467196208497173e-05</v>
+        <v>1.467745544016074e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.658584924541228e-05</v>
+        <v>8.67462317100938e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001830533234944209</v>
+        <v>0.0001004483777197319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002309136219995881</v>
+        <v>0.001666128487047183</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000015232596523</v>
+        <v>1.000007930340078</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002407440929452048</v>
+        <v>0.001737059026102219</v>
       </c>
       <c r="P3" t="n">
-        <v>90.28352702046271</v>
+        <v>91.58901046053511</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.5064292411134</v>
+        <v>131.8119126811857</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999943337416469</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990506150237008</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999556427942093</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999861585100727</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999777673541204</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G4" t="n">
-        <v>5.289203452560433e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008862092021912017</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I4" t="n">
-        <v>1.841426065456026e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.445345011372198e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.643385538414112e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001832284788644012</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002299826830994115</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000015110022275</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002397735220487385</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P4" t="n">
-        <v>90.29968579901463</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.5225880196652</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999943842898356</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990504623240544</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999558597160344</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999863957039683</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999779958060468</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G5" t="n">
-        <v>5.242018937312966e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008863517406083732</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I5" t="n">
-        <v>1.832420865609078e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.420576939758107e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.626498902683593e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001833759370665108</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00228954557441274</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000014975227105</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002387016269528206</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P5" t="n">
-        <v>90.31760768091485</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q5" t="n">
-        <v>130.5405099015655</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999944364975125</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990502913552165</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99995607377373</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999866553746155</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999782393298023</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G6" t="n">
-        <v>5.193285362531384e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008865113325138757</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82353456600648e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.393461818736133e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.608498192371307e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001835645565522537</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002278878092950868</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000014836006633</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002375894651295771</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P6" t="n">
-        <v>90.33628808645793</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.5591903071086</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999944911843125</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999050095714734</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999562866232056</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999869410535674</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999785008848394</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G7" t="n">
-        <v>5.14223763526605e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008866939543166155</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I7" t="n">
-        <v>1.814698423933537e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.363630879274935e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.589164651604236e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001837935594247303</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002267650245356645</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000014690175167</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002364188810984613</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P7" t="n">
-        <v>90.35604447125745</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.5789466919081</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999945479010045</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990498757403907</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999564859695802</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999872573887776</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999787803016483</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G8" t="n">
-        <v>5.089295092803396e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008868992907104226</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I8" t="n">
-        <v>1.806422843816129e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.330598776491606e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.568510810153868e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001840197202745126</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002255946606815728</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000014538930655</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002351986924321138</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P8" t="n">
-        <v>90.37674245127202</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q8" t="n">
-        <v>130.5996446719226</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999946041589398</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990496220201371</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999566724215015</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999875941486845</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999979070524239</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G9" t="n">
-        <v>5.036780779583081e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008871361274301077</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I9" t="n">
-        <v>1.798682558516984e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.295433902327159e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.547058230422071e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001842814355290999</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002244277340166113</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000014388909494</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002339820872831536</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P9" t="n">
-        <v>90.39748682833661</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.6203890489872</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999946585071737</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990493441654187</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999568112145178</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999987962244265</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999793694972215</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G10" t="n">
-        <v>4.986049088892543e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008873954926133282</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I10" t="n">
-        <v>1.792920764610159e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.256996919484809e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.524958842047484e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001846016836411551</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00223294627989402</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00001424398087</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002328007425865132</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P10" t="n">
-        <v>90.4177334551318</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.6406356757824</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999947120938498</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990490109931229</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999569147977593</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999883680840634</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999796852430057</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G11" t="n">
-        <v>4.936028278967298e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000887706494326886</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I11" t="n">
-        <v>1.788620654238844e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.214618640036703e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.501619647137774e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001849628125969187</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002221717416542279</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000014101083067</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002316300526553556</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P11" t="n">
-        <v>90.43789908450265</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.6608013051533</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999947634239718</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990486221540862</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999569611411613</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999988817077017</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999800153958587</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G12" t="n">
-        <v>4.888113863193388e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008880694584995749</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I12" t="n">
-        <v>1.786696774075597e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>1.167734256273319e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.477215515174458e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001852989665113951</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002210907927344191</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000013964202742</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002305030855021578</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P12" t="n">
-        <v>90.45740808386458</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.6803103045152</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999948012940776</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990482340235669</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999568936924953</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999892763054609</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999803208244968</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G13" t="n">
-        <v>4.852763781718451e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008884317613024118</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I13" t="n">
-        <v>1.789496809138417e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11978107031803e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.454638939728224e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001857732231052</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002202898949502326</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000013863215793</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002296680918412115</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P13" t="n">
-        <v>90.47192432683622</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.6948265474869</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999948387999223</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990476945357755</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999567592511709</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999898126665409</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999806619223972</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G14" t="n">
-        <v>4.81775372196224e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008889353494748977</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I14" t="n">
-        <v>1.795077948767454e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>1.063773601802004e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.429425775284729e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001861985208924233</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002194938204588512</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000013763200207</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002288381268106306</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P14" t="n">
-        <v>90.48640554263342</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.709307763284</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999948616609937</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990470974088878</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999956485276392</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999903826489449</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999809875858766</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G15" t="n">
-        <v>4.796413915356135e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008894927412137015</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I15" t="n">
-        <v>1.806451620533688e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>1.00425535422996e-05</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.405353487381824e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001867027106539499</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002190071668999929</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00001370223735</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0022833075540226</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P15" t="n">
-        <v>90.49528404047382</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.7181862611244</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999948592561023</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990464414791396</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999559876118366</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999909775015554</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999812680018244</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G16" t="n">
-        <v>4.798658775862923e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008901050228416966</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I16" t="n">
-        <v>1.827111453991368e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>9.42140129819456e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.384625791905412e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001873716687281543</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002190584117504489</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000013708650394</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002283841818520914</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P16" t="n">
-        <v>90.49434820158234</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.717250422233</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999948411196773</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990455978924289</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99995530925533</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999916459447251</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999815496573018</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G17" t="n">
-        <v>4.815588332555762e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008908924740069417</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I17" t="n">
-        <v>1.855272455806258e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>8.723404907694614e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.36380647328786e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001879462273418505</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002194444880272859</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000013757014194</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002287866941953214</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P17" t="n">
-        <v>90.48730466546357</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.7102068861142</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999947899548904</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990446272113185</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999543566473569</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999923537789117</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999817821235929</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G18" t="n">
-        <v>4.863348415188095e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008917985622155179</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I18" t="n">
-        <v>1.894818615686134e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>7.98427594413619e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.346623105049877e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001886309126234915</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002205300073728765</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000013893453626</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002299184263467886</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P18" t="n">
-        <v>90.46756676593436</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.690468986585</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999946990539591</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999043507670914</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999530567643581</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999931135785398</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999819537767379</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G19" t="n">
-        <v>4.948200444521827e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008928436040410126</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I19" t="n">
-        <v>1.948781402415159e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>7.190884042046952e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.333934903309927e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001892939335253116</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002224455089347013</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000014135856109</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002319154747757351</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P19" t="n">
-        <v>90.43297318808798</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.6558754087386</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999945473780923</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990422498351902</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999512931605778</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999938841338432</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999982002809785</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G20" t="n">
-        <v>5.089783208307935e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008940177384764777</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I20" t="n">
-        <v>2.021994895289005e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>6.386260934571713e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.330310494373088e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001901402545119632</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002256054788410054</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000014540325087</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002352099711429901</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P20" t="n">
-        <v>90.37655063999384</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.5994528606445</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999943492393624</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990407698577894</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999492427922406</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999947209884728</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999820181461168</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G21" t="n">
-        <v>5.274737015465878e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008953992324166379</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I21" t="n">
-        <v>2.107113009306855e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>5.512407273970167e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.329176868351936e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001908283161887143</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002296679563079246</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000015068695034</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002394453966861638</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30516346946585</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.5280656901165</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999940547314264</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990390978548024</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999464967204802</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999995548496046</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999818315201687</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G22" t="n">
-        <v>5.54964724631178e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008969599738125535</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I22" t="n">
-        <v>2.221112257616726e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>4.648313922008417e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.342971824908784e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001931894907184522</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002355768928887505</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000015854049529</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002456058889304203</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P22" t="n">
-        <v>90.20355238289801</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.4264546035486</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999936649714295</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990370978438895</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999431623099312</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999963897661692</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999814894040614</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G23" t="n">
-        <v>5.913471094923459e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008988268962094541</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I23" t="n">
-        <v>2.359535550708563e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.769849549893398e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.368260252848951e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000195654506773671</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00243176296026637</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016893409521</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002535288143928198</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P23" t="n">
-        <v>90.07655514649667</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.2994573671473</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="24">
@@ -1732,162 +1732,162 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999931452134895</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990348985841963</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999390452392433</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999971819066154</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999808928075673</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G24" t="n">
-        <v>6.398642317208051e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009008798085967434</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I24" t="n">
-        <v>2.530449861987656e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.942686976909721e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.412359279839314e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001982925256158819</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002529553778279492</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000018279430695</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002637242119519039</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P24" t="n">
-        <v>89.91884945607865</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.1417516767293</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_1</t>
+          <t>model_14_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999924505369145</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990323972886471</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999338919931321</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999978782867657</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999799376043736</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G25" t="n">
-        <v>7.047092407119897e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009032146581977149</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I25" t="n">
-        <v>2.744379516520499e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>2.215518455612125e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.482965681040856e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000203652537010579</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002654636021589381</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000020131901561</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00276764937288257</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P25" t="n">
-        <v>89.72579090146496</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.9486931221156</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_0</t>
+          <t>model_14_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999915630102345</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990294741473796</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999277905880758</v>
+        <v>0.9999948166069618</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999984650735558</v>
+        <v>0.99998952691077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999786387395742</v>
+        <v>0.9999913803837613</v>
       </c>
       <c r="G26" t="n">
-        <v>7.875559605006312e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009059432822598249</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I26" t="n">
-        <v>2.997670635883016e-05</v>
+        <v>2.672062662562203e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>1.602788638008619e-06</v>
+        <v>1.468037223886669e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.578974749841939e-05</v>
+        <v>8.676217450714447e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002094802831985518</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002806342745461843</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000022498639375</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002925814566066493</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P26" t="n">
-        <v>89.50349262964821</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q26" t="n">
-        <v>129.7263948502988</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
   </sheetData>
